--- a/MerleNorman/target/test-classes/GeneralUtilities/orders.xlsx
+++ b/MerleNorman/target/test-classes/GeneralUtilities/orders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandeepa.bhat\git\repository\MerleNorman\src\test\java\GeneralUtilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandeepa.bhat\git\MN\MerleNorman\src\test\java\GeneralUtilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="248">
   <si>
     <t>CardNumber</t>
   </si>
@@ -669,10 +669,103 @@
     <t>acceptCookie</t>
   </si>
   <si>
-    <t>maxwindow</t>
-  </si>
-  <si>
     <t>sleep</t>
+  </si>
+  <si>
+    <t>proceedtoCheckout</t>
+  </si>
+  <si>
+    <t>sendKey</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>streetNumber</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>nextToBilling</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>selectByValue</t>
+  </si>
+  <si>
+    <t>tabOut</t>
+  </si>
+  <si>
+    <t>emailxpath</t>
+  </si>
+  <si>
+    <t>creditCardNumber</t>
+  </si>
+  <si>
+    <t>cardNumberVisa</t>
+  </si>
+  <si>
+    <t>expiryMonth</t>
+  </si>
+  <si>
+    <t>expMonth</t>
+  </si>
+  <si>
+    <t>expiryYear</t>
+  </si>
+  <si>
+    <t>expYear</t>
+  </si>
+  <si>
+    <t>cvvxpath</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>nextOrderReview</t>
+  </si>
+  <si>
+    <t>skipStudio</t>
+  </si>
+  <si>
+    <t>placeOrder</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>ordrerID</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>resizeWindow</t>
+  </si>
+  <si>
+    <t>iPad</t>
   </si>
 </sst>
 </file>
@@ -3161,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3209,7 +3302,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -3220,13 +3313,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3281,6 +3374,292 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
       </c>
     </row>
